--- a/UrbanEco/Excel/RapportDepense.xlsx
+++ b/UrbanEco/Excel/RapportDepense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DBE650-86C3-4C81-BC40-B36108ABD1C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7CDE80-C173-49EA-9F54-35A81E86EDE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6707D12C-BED5-4F53-BB55-552D6E95541A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{CB3F7F17-3982-4A54-A5AD-26FCBBED58EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD39002F-37B5-49D0-9186-F4DDD321033A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C798D4-AB6B-49CC-9A1B-99EE8A6B8FA6}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/UrbanEco/Excel/RapportDepense.xlsx
+++ b/UrbanEco/Excel/RapportDepense.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7CDE80-C173-49EA-9F54-35A81E86EDE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693D8FE9-E55A-40E1-A30E-78BEC9774094}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{CB3F7F17-3982-4A54-A5AD-26FCBBED58EC}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{5D5ABF00-0EF1-4E94-9D2D-87EC4E0EBAD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Déplacement (Voiture)</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Total :</t>
   </si>
   <si>
-    <t>56,40 $</t>
-  </si>
-  <si>
-    <t>François Bélanger - 2019-02-18 00:00:00</t>
+    <t>67,59 $</t>
+  </si>
+  <si>
+    <t>François Bélanger</t>
   </si>
   <si>
     <t>9,40 $</t>
@@ -51,22 +51,34 @@
     <t>47,00 $</t>
   </si>
   <si>
+    <t>kévyn-Marc a</t>
+  </si>
+  <si>
+    <t>11,19 $</t>
+  </si>
+  <si>
     <t>Déplacement (Camion)</t>
   </si>
   <si>
+    <t>249,91 $</t>
+  </si>
+  <si>
+    <t>Stéfany Briand</t>
+  </si>
+  <si>
+    <t>234,50 $</t>
+  </si>
+  <si>
+    <t>Martin Beaulieu</t>
+  </si>
+  <si>
     <t>15,41 $</t>
   </si>
   <si>
-    <t>Martin Beaulieu - 2019-02-18 00:00:00</t>
-  </si>
-  <si>
     <t>Autre (Bureau)</t>
   </si>
   <si>
     <t>790,00 $</t>
-  </si>
-  <si>
-    <t>François Bélanger - 2019-02-17 00:00:00</t>
   </si>
   <si>
     <t>134,00 $</t>
@@ -111,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,110 +439,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C798D4-AB6B-49CC-9A1B-99EE8A6B8FA6}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4C132A-0CBB-440D-AD98-F50690D21454}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>43514</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>43514</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C5" s="1">
+        <v>43516</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43341</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43514</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1">
+        <v>43513</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43514</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43514</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/UrbanEco/Excel/RapportDepense.xlsx
+++ b/UrbanEco/Excel/RapportDepense.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 - Prog 2018\Projet\CodeBreaker\GITPROJECT\UrbanEco\UrbanEco\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\UrbanEco\UrbanEco\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693D8FE9-E55A-40E1-A30E-78BEC9774094}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC284194-B9E0-465B-8659-A0FAD4322E34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{5D5ABF00-0EF1-4E94-9D2D-87EC4E0EBAD2}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{5D776FD7-7AD1-489D-94AA-3C52750E1052}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,63 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Déplacement (Voiture)</t>
-  </si>
-  <si>
-    <t>Total :</t>
-  </si>
-  <si>
-    <t>67,59 $</t>
-  </si>
-  <si>
-    <t>François Bélanger</t>
-  </si>
-  <si>
-    <t>9,40 $</t>
-  </si>
-  <si>
-    <t>47,00 $</t>
-  </si>
-  <si>
-    <t>kévyn-Marc a</t>
   </si>
   <si>
     <t>11,19 $</t>
   </si>
   <si>
-    <t>Déplacement (Camion)</t>
-  </si>
-  <si>
-    <t>249,91 $</t>
-  </si>
-  <si>
-    <t>Stéfany Briand</t>
-  </si>
-  <si>
-    <t>234,50 $</t>
-  </si>
-  <si>
-    <t>Martin Beaulieu</t>
-  </si>
-  <si>
-    <t>15,41 $</t>
-  </si>
-  <si>
-    <t>Autre (Bureau)</t>
-  </si>
-  <si>
-    <t>790,00 $</t>
-  </si>
-  <si>
-    <t>134,00 $</t>
-  </si>
-  <si>
-    <t>434,00 $</t>
-  </si>
-  <si>
-    <t>222,00 $</t>
+    <t>kévyn-Marc a</t>
   </si>
 </sst>
 </file>
@@ -439,8 +391,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4C132A-0CBB-440D-AD98-F50690D21454}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EDCBB5-62BB-456E-94C8-743D84E633E5}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,11 +402,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,133 +411,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>43514</v>
+        <v>43516</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43514</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43516</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
         <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43341</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43514</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43513</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43514</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43514</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
